--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_4_flies_lab_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_4_flies_lab_del.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB04013-15A4-4068-BC85-E95E9EB3B845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92553D-A803-48A3-BC8B-918BF0A70DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,9 +699,6 @@
     <t>ASHAKA</t>
   </si>
   <si>
-    <t>UTAGBAUNO</t>
-  </si>
-  <si>
     <t>ETUA</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>OGBOLI</t>
   </si>
   <si>
-    <t>ILLA</t>
-  </si>
-  <si>
     <t>BOLU ANGIAMA</t>
   </si>
   <si>
@@ -822,9 +816,6 @@
     <t>DEL_ANN_N_013</t>
   </si>
   <si>
-    <t>DEL_ANN_N_014</t>
-  </si>
-  <si>
     <t>DEL_ANN_S_015</t>
   </si>
   <si>
@@ -1065,19 +1056,28 @@
     <t>DEL_WAN_M_094</t>
   </si>
   <si>
-    <t>ng_oncho_2408_4_flies_lab_del_v2</t>
-  </si>
-  <si>
-    <t>(Delta) 4. Blackfly Lab App V2</t>
-  </si>
-  <si>
-    <t>pools_positive_details_v2</t>
-  </si>
-  <si>
-    <t>pools_negative_details_v2</t>
-  </si>
-  <si>
-    <t>pools_less_100_details_v2</t>
+    <t>(Delta) 4. Blackfly Lab App V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTAGBAUNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLA </t>
+  </si>
+  <si>
+    <t>DEL_OSN_N_014</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_4_f_lab_del_v3</t>
+  </si>
+  <si>
+    <t>pools_positive_details_v3</t>
+  </si>
+  <si>
+    <t>pools_negative_details_v3</t>
+  </si>
+  <si>
+    <t>pools_less_100_details_v3</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1311,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1653,7 +1674,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
@@ -3327,10 +3348,10 @@
         <v>138</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
         <v>148</v>
@@ -3341,13 +3362,13 @@
         <v>138</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,10 +3376,10 @@
         <v>138</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
         <v>149</v>
@@ -3369,10 +3390,10 @@
         <v>138</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
         <v>149</v>
@@ -3383,10 +3404,10 @@
         <v>138</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
         <v>149</v>
@@ -3397,10 +3418,10 @@
         <v>138</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
         <v>149</v>
@@ -3411,10 +3432,10 @@
         <v>138</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
         <v>149</v>
@@ -3425,10 +3446,10 @@
         <v>138</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
         <v>149</v>
@@ -3439,10 +3460,10 @@
         <v>138</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E68" t="s">
         <v>149</v>
@@ -3453,10 +3474,10 @@
         <v>138</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E69" t="s">
         <v>149</v>
@@ -3467,10 +3488,10 @@
         <v>138</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
         <v>149</v>
@@ -3481,13 +3502,13 @@
         <v>138</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,10 +3516,10 @@
         <v>138</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
         <v>150</v>
@@ -3509,13 +3530,13 @@
         <v>138</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,10 +3544,10 @@
         <v>138</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
         <v>151</v>
@@ -3537,10 +3558,10 @@
         <v>138</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
         <v>151</v>
@@ -3551,10 +3572,10 @@
         <v>138</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E76" t="s">
         <v>151</v>
@@ -3565,13 +3586,13 @@
         <v>138</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3579,10 +3600,10 @@
         <v>138</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E78" t="s">
         <v>152</v>
@@ -3593,10 +3614,10 @@
         <v>138</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
         <v>152</v>
@@ -3607,10 +3628,10 @@
         <v>138</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
         <v>152</v>
@@ -3621,10 +3642,10 @@
         <v>138</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" t="s">
         <v>152</v>
@@ -3635,10 +3656,10 @@
         <v>138</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E82" t="s">
         <v>152</v>
@@ -3649,13 +3670,13 @@
         <v>138</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,10 +3684,10 @@
         <v>138</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
         <v>153</v>
@@ -3677,10 +3698,10 @@
         <v>138</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E85" t="s">
         <v>153</v>
@@ -3691,10 +3712,10 @@
         <v>138</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E86" t="s">
         <v>153</v>
@@ -3705,13 +3726,13 @@
         <v>138</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3719,10 +3740,10 @@
         <v>138</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -3733,13 +3754,13 @@
         <v>138</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E89" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3747,10 +3768,10 @@
         <v>138</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
         <v>155</v>
@@ -3761,10 +3782,10 @@
         <v>138</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
         <v>155</v>
@@ -3775,10 +3796,10 @@
         <v>138</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
         <v>155</v>
@@ -3789,13 +3810,13 @@
         <v>138</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,13 +3824,13 @@
         <v>138</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E94" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3817,10 +3838,10 @@
         <v>138</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E95" t="s">
         <v>157</v>
@@ -3831,10 +3852,10 @@
         <v>138</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E96" t="s">
         <v>157</v>
@@ -3845,10 +3866,10 @@
         <v>138</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
         <v>157</v>
@@ -3859,10 +3880,10 @@
         <v>138</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E98" t="s">
         <v>157</v>
@@ -3873,10 +3894,10 @@
         <v>138</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
         <v>157</v>
@@ -3887,13 +3908,13 @@
         <v>138</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E100" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3901,10 +3922,10 @@
         <v>138</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="E101" t="s">
         <v>158</v>
@@ -3915,13 +3936,13 @@
         <v>138</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E102" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,13 +3950,13 @@
         <v>138</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E103" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3943,10 +3964,10 @@
         <v>138</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
         <v>160</v>
@@ -3971,10 +3992,10 @@
         <v>138</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E106" t="s">
         <v>160</v>
@@ -3985,10 +4006,10 @@
         <v>138</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="E107" t="s">
         <v>160</v>
@@ -3999,10 +4020,10 @@
         <v>138</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E108" t="s">
         <v>160</v>
@@ -4013,10 +4034,10 @@
         <v>138</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
         <v>160</v>
@@ -4027,10 +4048,10 @@
         <v>138</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E110" t="s">
         <v>160</v>
@@ -4041,10 +4062,10 @@
         <v>138</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
         <v>160</v>
@@ -4055,10 +4076,10 @@
         <v>138</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E112" t="s">
         <v>160</v>
@@ -4069,10 +4090,10 @@
         <v>138</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
         <v>161</v>
@@ -4083,10 +4104,10 @@
         <v>138</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E114" t="s">
         <v>161</v>
@@ -4097,10 +4118,10 @@
         <v>138</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
         <v>161</v>
@@ -4111,10 +4132,10 @@
         <v>138</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E116" t="s">
         <v>161</v>
@@ -4125,10 +4146,10 @@
         <v>138</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E117" t="s">
         <v>161</v>
@@ -4139,10 +4160,10 @@
         <v>138</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E118" t="s">
         <v>162</v>
@@ -4153,10 +4174,10 @@
         <v>138</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E119" t="s">
         <v>163</v>
@@ -4167,10 +4188,10 @@
         <v>138</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E120" t="s">
         <v>163</v>
@@ -4181,10 +4202,10 @@
         <v>138</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E121" t="s">
         <v>164</v>
@@ -4195,10 +4216,10 @@
         <v>138</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E122" t="s">
         <v>164</v>
@@ -4209,10 +4230,10 @@
         <v>138</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
         <v>164</v>
@@ -4223,10 +4244,10 @@
         <v>138</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E124" t="s">
         <v>165</v>
@@ -4237,10 +4258,10 @@
         <v>138</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E125" t="s">
         <v>165</v>
@@ -4251,10 +4272,10 @@
         <v>138</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E126" t="s">
         <v>165</v>
@@ -4265,10 +4286,10 @@
         <v>138</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E127" t="s">
         <v>165</v>
@@ -4279,28 +4300,28 @@
         <v>138</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E128" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
         <v>167</v>
@@ -4311,10 +4332,10 @@
         <v>144</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
         <v>167</v>
@@ -4325,10 +4346,10 @@
         <v>144</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
         <v>167</v>
@@ -4339,10 +4360,10 @@
         <v>144</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
         <v>168</v>
@@ -4353,10 +4374,10 @@
         <v>144</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
         <v>169</v>
@@ -4367,10 +4388,10 @@
         <v>144</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
         <v>170</v>
@@ -4381,10 +4402,10 @@
         <v>144</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
         <v>171</v>
@@ -4395,10 +4416,10 @@
         <v>144</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
         <v>172</v>
@@ -4409,10 +4430,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F138" t="s">
         <v>172</v>
@@ -4423,10 +4444,10 @@
         <v>144</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F139" t="s">
         <v>172</v>
@@ -4437,10 +4458,10 @@
         <v>144</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
         <v>172</v>
@@ -4451,10 +4472,10 @@
         <v>144</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F141" t="s">
         <v>173</v>
@@ -4465,10 +4486,10 @@
         <v>144</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
         <v>174</v>
@@ -4479,10 +4500,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
       <c r="F143" t="s">
         <v>175</v>
@@ -4493,10 +4514,10 @@
         <v>144</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F144" t="s">
         <v>176</v>
@@ -4507,10 +4528,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F145" t="s">
         <v>177</v>
@@ -4521,10 +4542,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F146" t="s">
         <v>178</v>
@@ -4535,10 +4556,10 @@
         <v>144</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F147" t="s">
         <v>179</v>
@@ -4549,10 +4570,10 @@
         <v>144</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
         <v>180</v>
@@ -4563,10 +4584,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F149" t="s">
         <v>181</v>
@@ -4577,10 +4598,10 @@
         <v>144</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F150" t="s">
         <v>182</v>
@@ -4591,10 +4612,10 @@
         <v>144</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F151" t="s">
         <v>182</v>
@@ -4605,10 +4626,10 @@
         <v>144</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F152" t="s">
         <v>182</v>
@@ -4619,10 +4640,10 @@
         <v>144</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F153" t="s">
         <v>182</v>
@@ -4633,10 +4654,10 @@
         <v>144</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
         <v>182</v>
@@ -4647,10 +4668,10 @@
         <v>144</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F155" t="s">
         <v>182</v>
@@ -4661,10 +4682,10 @@
         <v>144</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F156" t="s">
         <v>182</v>
@@ -4675,10 +4696,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F157" t="s">
         <v>183</v>
@@ -4689,10 +4710,10 @@
         <v>144</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F158" t="s">
         <v>184</v>
@@ -4703,10 +4724,10 @@
         <v>144</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F159" t="s">
         <v>185</v>
@@ -4717,10 +4738,10 @@
         <v>144</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F160" t="s">
         <v>186</v>
@@ -4731,10 +4752,10 @@
         <v>144</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F161" t="s">
         <v>187</v>
@@ -4745,10 +4766,10 @@
         <v>144</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F162" t="s">
         <v>188</v>
@@ -4759,10 +4780,10 @@
         <v>144</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F163" t="s">
         <v>189</v>
@@ -4773,10 +4794,10 @@
         <v>144</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F164" t="s">
         <v>190</v>
@@ -4787,10 +4808,10 @@
         <v>144</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F165" t="s">
         <v>191</v>
@@ -4801,10 +4822,10 @@
         <v>144</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F166" t="s">
         <v>192</v>
@@ -4815,10 +4836,10 @@
         <v>144</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F167" t="s">
         <v>193</v>
@@ -4829,10 +4850,10 @@
         <v>144</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F168" t="s">
         <v>194</v>
@@ -4843,10 +4864,10 @@
         <v>144</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F169" t="s">
         <v>195</v>
@@ -4857,10 +4878,10 @@
         <v>144</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F170" t="s">
         <v>196</v>
@@ -4871,10 +4892,10 @@
         <v>144</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F171" t="s">
         <v>197</v>
@@ -4885,10 +4906,10 @@
         <v>144</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F172" t="s">
         <v>198</v>
@@ -4899,10 +4920,10 @@
         <v>144</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F173" t="s">
         <v>199</v>
@@ -4913,10 +4934,10 @@
         <v>144</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F174" t="s">
         <v>200</v>
@@ -4927,10 +4948,10 @@
         <v>144</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F175" t="s">
         <v>201</v>
@@ -4941,10 +4962,10 @@
         <v>144</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F176" t="s">
         <v>202</v>
@@ -4955,10 +4976,10 @@
         <v>144</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F177" t="s">
         <v>203</v>
@@ -4969,10 +4990,10 @@
         <v>144</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F178" t="s">
         <v>204</v>
@@ -4983,10 +5004,10 @@
         <v>144</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F179" t="s">
         <v>205</v>
@@ -4997,10 +5018,10 @@
         <v>144</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F180" t="s">
         <v>206</v>
@@ -5011,10 +5032,10 @@
         <v>144</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F181" t="s">
         <v>207</v>
@@ -5025,10 +5046,10 @@
         <v>144</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F182" t="s">
         <v>208</v>
@@ -5039,10 +5060,10 @@
         <v>144</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F183" t="s">
         <v>209</v>
@@ -5053,10 +5074,10 @@
         <v>144</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F184" t="s">
         <v>210</v>
@@ -5067,10 +5088,10 @@
         <v>144</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F185" t="s">
         <v>211</v>
@@ -5081,10 +5102,10 @@
         <v>144</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F186" t="s">
         <v>212</v>
@@ -5095,10 +5116,10 @@
         <v>144</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F187" t="s">
         <v>213</v>
@@ -5109,10 +5130,10 @@
         <v>144</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F188" t="s">
         <v>214</v>
@@ -5123,10 +5144,10 @@
         <v>144</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F189" t="s">
         <v>215</v>
@@ -5137,10 +5158,10 @@
         <v>144</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F190" t="s">
         <v>216</v>
@@ -5151,10 +5172,10 @@
         <v>144</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F191" t="s">
         <v>217</v>
@@ -5165,10 +5186,10 @@
         <v>144</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F192" t="s">
         <v>218</v>
@@ -5179,10 +5200,10 @@
         <v>144</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F193" t="s">
         <v>219</v>
@@ -5193,13 +5214,13 @@
         <v>144</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F194" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,13 +5228,13 @@
         <v>144</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5221,13 +5242,13 @@
         <v>144</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F196" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5235,13 +5256,13 @@
         <v>144</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5249,13 +5270,13 @@
         <v>144</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5263,13 +5284,13 @@
         <v>144</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5277,13 +5298,13 @@
         <v>144</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F200" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5291,13 +5312,13 @@
         <v>144</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,13 +5326,13 @@
         <v>144</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F202" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5319,13 +5340,13 @@
         <v>144</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F203" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5333,13 +5354,13 @@
         <v>144</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F204" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5347,13 +5368,13 @@
         <v>144</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F205" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5361,13 +5382,13 @@
         <v>144</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F206" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5375,13 +5396,13 @@
         <v>144</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F207" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5389,13 +5410,13 @@
         <v>144</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F208" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5403,13 +5424,13 @@
         <v>144</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F209" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5417,13 +5438,13 @@
         <v>144</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F210" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5431,13 +5452,13 @@
         <v>144</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F211" t="s">
-        <v>236</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,13 +5466,13 @@
         <v>144</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F212" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5459,13 +5480,13 @@
         <v>144</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F213" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5473,13 +5494,13 @@
         <v>144</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C214" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F214" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5487,13 +5508,13 @@
         <v>144</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F215" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5501,13 +5522,13 @@
         <v>144</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F216" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5515,13 +5536,13 @@
         <v>144</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C217" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F217" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5529,13 +5550,13 @@
         <v>144</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C218" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F218" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5543,13 +5564,13 @@
         <v>144</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F219" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,13 +5578,13 @@
         <v>144</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F220" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5571,13 +5592,13 @@
         <v>144</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F221" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,13 +5606,13 @@
         <v>144</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F222" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5599,16 +5620,20 @@
         <v>144</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F223" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B26:B223">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5619,7 +5644,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5643,10 +5668,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
